--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda_20250811/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda_20250811/summary_selection_rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda_20250811\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda_20250811\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D54057-F3D3-4264-A8CE-9F6CF2C20329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFB946-9617-4D38-9D8C-3C32C7447E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_new_0809" sheetId="4" r:id="rId1"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,8 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D157B6FF-07C1-4652-AEC9-C3ADB04F35C0}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -419,7 +417,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2">
@@ -438,30 +436,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>79.209249214958604</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>61.869704755231453</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>54.734994824061339</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>61.775545924561051</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>52.115923724830367</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
@@ -482,7 +480,7 @@
         <v>87.301184843006155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -503,7 +501,7 @@
         <v>86.230206720358012</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
@@ -524,7 +522,7 @@
         <v>88.306435753481125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
@@ -545,7 +543,7 @@
         <v>82.587398391566239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
@@ -553,7 +551,7 @@
       <c r="C8">
         <v>90.20265457890352</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>92.9174329651064</v>
       </c>
       <c r="E8">
@@ -566,7 +564,7 @@
         <v>85.485921158487528</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
@@ -587,7 +585,7 @@
         <v>78.424311628993323</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
@@ -608,7 +606,7 @@
         <v>77.460390372465739</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -621,7 +619,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13">
@@ -640,30 +638,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>76.875295922398422</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>61.092160543487992</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>54.007687494413162</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>61.207144237118548</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>52.57258857487232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
@@ -684,7 +682,7 @@
         <v>87.266778547680616</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
@@ -705,7 +703,7 @@
         <v>86.974157792599129</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
@@ -726,7 +724,7 @@
         <v>88.456886881951107</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
@@ -747,7 +745,7 @@
         <v>82.338774556873346</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
@@ -755,7 +753,7 @@
       <c r="C19">
         <v>85.701465122247313</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>92.772878658119907</v>
       </c>
       <c r="E19">
@@ -768,7 +766,7 @@
         <v>82.228055606017335</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
@@ -789,7 +787,7 @@
         <v>76.225492146702535</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
@@ -810,7 +808,7 @@
         <v>75.356490973105281</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -823,196 +821,196 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>0.05</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>0.1</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>0.15</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>0.2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>73.746404957367005</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>61.862588200013263</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>54.58201195512072</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>62.576608217487461</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <v>52.878836898819777</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>74.057197726623954</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>69.886977107645109</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
         <v>89.897006029463924</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>91.079680620074569</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>87.630498533724349</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>73.595117604823571</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>84.109424245307778</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>91.677794213906111</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>91.038694106350405</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <v>86.740300521630815</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>73.360000230682502</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>89.318535050764595</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>92.171160650178635</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>91.347306925953802</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>89.714334322384559</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>1E-3</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>75.904232158871054</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>92.450782446214944</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>91.836867100926483</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>91.242940394524737</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <v>82.074412408411817</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>0.01</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>83.275956827769548</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>92.943998938860489</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>91.355917150379042</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>87.251129623381985</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <v>84.55933009801123</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>0.1</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>88.722474531209897</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32">
         <v>88.610847267998281</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <v>84.909696450661357</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>83.024933895045223</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32">
         <v>76.780577686658191</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>87.310201645342943</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <v>85.934630345706552</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <v>81.214906703345193</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>77.76865428478331</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <v>75.234791535105543</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -1025,205 +1023,196 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>0.05</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>0.1</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>0.15</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>0.2</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>71.40097521028153</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>61.486223929272747</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <v>54.40722382258209</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>62.075041018232568</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>51.971718325129693</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>72.656620443660131</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>68.157893522723668</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>88.292127671231299</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>90.275209993166044</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>86.032307084548023</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>72.684011107362522</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>84.211411863424445</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>90.021415986874175</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>90.881691594794631</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>84.718515442751823</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>72.909595527066273</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>89.351130488441356</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>91.747618924039131</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>91.21247011940703</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>87.663817737754343</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>1E-3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>74.593854618119551</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>91.021404452749024</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>91.462919229405117</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>90.466791811924566</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>79.329108959996773</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="6">
+      <c r="B42">
         <v>0.01</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>83.263145298258053</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42">
         <v>91.85156157636888</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <v>91.124496463348876</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>85.093019835811731</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>81.100087370998011</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>0.1</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>85.64939719778431</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>87.803643053428956</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <v>83.764850907014775</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>79.497573508421354</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>72.641049374706228</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>81.608502957061333</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>80.820823132841397</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <v>78.304708518239778</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>74.999613606807443</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>72.959518104251188</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
@@ -1236,206 +1225,196 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="6">
+      <c r="C47">
         <v>0.05</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47">
         <v>0.1</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47">
         <v>0.15</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47">
         <v>0.2</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48">
         <v>70.223260293485808</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48">
         <v>59.897046398901963</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>53.401534615351338</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48">
         <v>61.29098579284134</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48">
         <v>51.934716851645199</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>70.635204456785956</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49">
         <v>66.822192810203077</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49">
         <v>85.766831893009467</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>87.23974255832664</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <v>83.728270429098288</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>71.645960028489284</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50">
         <v>77.928024175526318</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>85.860362113859125</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50">
         <v>89.002217435560269</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50">
         <v>81.426171506673938</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51">
         <v>72.114611718094451</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51">
         <v>86.593569148522036</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51">
         <v>89.333220875613094</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51">
         <v>89.108267949261375</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51">
         <v>85.227698048137682</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="6">
+      <c r="B52">
         <v>1E-3</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52">
         <v>72.616138547911319</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52">
         <v>89.25140067532304</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52">
         <v>90.105228707284112</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>88.73717477371487</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52">
         <v>71.809041023999626</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>0.01</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>78.14385937594615</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53">
         <v>90.250030997961346</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53">
         <v>88.710014792515494</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53">
         <v>79.256412252701168</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>77.406390482039939</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>0.1</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>79.886726240423059</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54">
         <v>82.409121186169443</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54">
         <v>79.852859165448393</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54">
         <v>77.1254566792677</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54">
         <v>69.441566680219267</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>74.508184903560306</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>75.106722376491135</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55">
         <v>75.112555760286284</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55">
         <v>73.085883095874536</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55">
         <v>69.284085502469736</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -1447,226 +1426,240 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>0.05</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58">
         <v>0.1</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58">
         <v>0.15</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>0.2</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <v>0.3</v>
       </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59">
         <v>63.510151471898538</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59">
         <v>57.553237196400197</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59">
         <v>53.779444458862102</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59">
         <v>59.999630907995183</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59">
         <v>49.007534667254909</v>
       </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60">
         <v>62.188931853505082</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60">
         <v>61.724328641827917</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60">
         <v>71.528813686392894</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60">
         <v>74.708212585460643</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60">
         <v>72.877625815678911</v>
       </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61">
         <v>62.181451973344643</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61">
         <v>61.002364495655947</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61">
         <v>70.625164000842005</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61">
         <v>76.167273650002741</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61">
         <v>72.376646856806715</v>
       </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62">
         <v>61.691744738276277</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62">
         <v>72.976219517469872</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62">
         <v>77.217758515788788</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62">
         <v>79.129110113409283</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62">
         <v>76.039576466924458</v>
       </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="6">
+      <c r="B63">
         <v>1E-3</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63">
         <v>62.836290394668922</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63">
         <v>78.184272066944047</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63">
         <v>78.424891218782193</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63">
         <v>77.605731883493803</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63">
         <v>67.598609561213053</v>
       </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="6">
+      <c r="B64">
         <v>0.01</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64">
         <v>66.59765511235679</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64">
         <v>82.095390098530245</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64">
         <v>77.154600529993033</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>72.890004815497235</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64">
         <v>70.884716419115506</v>
       </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="6">
+      <c r="B65">
         <v>0.1</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65">
         <v>66.05417578583436</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65">
         <v>68.964627721693077</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65">
         <v>71.545569886706048</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65">
         <v>70.745825367578149</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65">
         <v>63.773074738247438</v>
       </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="6">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66">
         <v>63.759086727970541</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66">
         <v>66.708910400032309</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66">
         <v>68.16847319901845</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66">
         <v>68.019423466754333</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66">
         <v>64.60897873972381</v>
       </c>
-      <c r="H66" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A35:B36"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A26:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:G3">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:G10">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:G10">
     <cfRule type="colorScale" priority="143">
       <colorScale>
@@ -1678,8 +1671,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
@@ -1703,8 +1694,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
-    <cfRule type="colorScale" priority="142">
+  <conditionalFormatting sqref="C14:G14">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G21">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1726,6 +1729,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:G21">
     <cfRule type="colorScale" priority="148">
@@ -1739,104 +1752,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G44">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G44">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:G44">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:G55">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:G55">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:G55">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:G3">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:G10">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G14">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="C26:G33">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:G33">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:G33">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1848,6 +1789,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:G37">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -1858,45 +1809,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G37">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
-    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1918,21 +1841,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G55">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G44">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1954,6 +1863,36 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:G44">
     <cfRule type="colorScale" priority="64">
@@ -1966,9 +1905,71 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:G55">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:G48">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:G55">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1990,6 +1991,36 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:G55">
     <cfRule type="colorScale" priority="63">
@@ -2002,9 +2033,41 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:G66">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:G59">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:G66">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2026,153 +2089,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:G66">
     <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G37">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G37">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:G59">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:G59">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G44">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G55">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:G66">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G33">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:G33">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:G33">
-    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2190,18 +2119,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B10F5E4-1932-4016-A66A-FA6FDD25640E}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2214,26 +2140,26 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>0.05</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>0.1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>0.15</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>0.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2241,154 +2167,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>80.476898589088123</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>67.358910255855719</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>89.924794620484036</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>90.379683215252726</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>87.301184843006155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>80.89005095199785</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>84.819286210665041</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>90.842945584881065</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>90.673814940729002</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>86.230206720358012</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>80.85457198303331</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>89.650925469366797</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>91.462927879998972</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>91.052373578779509</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>88.306435753481125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>82.089989244428281</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>91.991271550791964</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>91.745375536697267</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>91.107304849811271</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>82.587398391566239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>90.20265457890352</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>92.9174329651064</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>92.171258690242425</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>89.146552594168909</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>85.485921158487528</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>93.270437748884802</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>92.492717641732781</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>90.290342765364173</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>86.339008122907657</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>78.424311628993323</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>92.910624947735997</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>89.917802057111231</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>85.668878335164379</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>81.676761909705107</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>77.460390372465739</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -2401,26 +2327,26 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>0.05</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>0.15</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>0.2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -2428,154 +2354,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>75.352102238485344</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>68.507824462149316</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>90.287430398763533</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>90.903788095052732</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>87.266778547680616</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>75.265512677445315</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>84.746433792679866</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>91.103654299200983</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>91.555901579310074</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>86.974157792599129</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>75.317211509903487</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>89.976680882475918</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>91.885861181036745</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>91.588747884208914</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>88.456886881951107</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>76.570797901942626</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>92.228335308552275</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>91.524171201019584</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>91.31244503268482</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>82.338774556873346</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>85.701465122247313</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>92.772878658119907</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>91.980628436808871</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>88.327491298944338</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>82.228055606017335</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>90.793507440952496</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>89.526155070545599</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>86.827763792651041</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>81.577049397774502</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>76.225492146702535</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>88.89303252334939</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>86.855223661104318</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>82.120860330395018</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>79.848683812143719</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>75.356490973105281</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -2588,26 +2514,26 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>0.05</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>0.1</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>0.15</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>0.2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -2615,49 +2541,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -2670,26 +2596,26 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>0.05</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>0.1</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>0.15</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>0.2</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
@@ -2697,154 +2623,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>72.656620443660131</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>68.157893522723668</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>88.292127671231299</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>90.275209993166044</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>86.032307084548023</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>72.684011107362522</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>84.211411863424445</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>90.021415986874175</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>90.881691594794631</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>84.718515442751823</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>72.909595527066273</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>89.351130488441356</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>91.747618924039131</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>91.21247011940703</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>87.663817737754343</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>1E-3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>74.593854618119551</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>91.021404452749024</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>91.462919229405117</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>90.466791811924566</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>79.329108959996773</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="6">
+      <c r="B42">
         <v>0.01</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>83.263145298258053</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42">
         <v>91.85156157636888</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <v>91.124496463348876</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>85.093019835811731</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>81.100087370998011</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>0.1</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>85.64939719778431</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>87.803643053428956</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <v>83.764850907014775</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>79.497573508421354</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>72.641049374706228</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>81.608502957061333</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>80.820823132841397</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <v>78.304708518239778</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>74.999613606807443</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>72.959518104251188</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
@@ -2857,26 +2783,26 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="6">
+      <c r="C47">
         <v>0.05</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47">
         <v>0.1</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47">
         <v>0.15</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47">
         <v>0.2</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2884,157 +2810,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>70.635204456785956</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49">
         <v>66.822192810203077</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49">
         <v>85.766831893009467</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>87.23974255832664</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <v>83.728270429098288</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>71.645960028489284</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50">
         <v>77.928024175526318</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>85.860362113859125</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50">
         <v>89.002217435560269</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50">
         <v>81.426171506673938</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51">
         <v>72.114611718094451</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51">
         <v>86.593569148522036</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51">
         <v>89.333220875613094</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51">
         <v>89.108267949261375</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51">
         <v>85.227698048137682</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="6">
+      <c r="B52">
         <v>1E-3</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52">
         <v>72.616138547911319</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52">
         <v>89.25140067532304</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52">
         <v>90.105228707284112</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>88.73717477371487</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52">
         <v>71.809041023999626</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>0.01</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>78.14385937594615</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53">
         <v>90.250030997961346</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53">
         <v>88.710014792515494</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53">
         <v>79.256412252701168</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>77.406390482039939</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>0.1</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>79.886726240423059</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54">
         <v>82.409121186169443</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54">
         <v>79.852859165448393</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54">
         <v>77.1254566792677</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54">
         <v>69.441566680219267</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>74.508184903560306</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>75.106722376491135</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55">
         <v>75.112555760286284</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55">
         <v>73.085883095874536</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55">
         <v>69.284085502469736</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -3046,193 +2969,189 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>0.05</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58">
         <v>0.1</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58">
         <v>0.15</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>0.2</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <v>0.3</v>
       </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60">
         <v>62.188931853505082</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60">
         <v>61.724328641827917</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60">
         <v>71.528813686392894</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60">
         <v>74.708212585460643</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60">
         <v>72.877625815678911</v>
       </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61">
         <v>62.181451973344643</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61">
         <v>61.002364495655947</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61">
         <v>70.625164000842005</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61">
         <v>76.167273650002741</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61">
         <v>72.376646856806715</v>
       </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62">
         <v>61.691744738276277</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62">
         <v>72.976219517469872</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62">
         <v>77.217758515788788</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62">
         <v>79.129110113409283</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62">
         <v>76.039576466924458</v>
       </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="6">
+      <c r="B63">
         <v>1E-3</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63">
         <v>62.836290394668922</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63">
         <v>78.184272066944047</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63">
         <v>78.424891218782193</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63">
         <v>77.605731883493803</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63">
         <v>67.598609561213053</v>
       </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="6">
+      <c r="B64">
         <v>0.01</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64">
         <v>66.59765511235679</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64">
         <v>82.095390098530245</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64">
         <v>77.154600529993033</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>72.890004815497235</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64">
         <v>70.884716419115506</v>
       </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="6">
+      <c r="B65">
         <v>0.1</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65">
         <v>66.05417578583436</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65">
         <v>68.964627721693077</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65">
         <v>71.545569886706048</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65">
         <v>70.745825367578149</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65">
         <v>63.773074738247438</v>
       </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="6">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66">
         <v>63.759086727970541</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66">
         <v>66.708910400032309</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66">
         <v>68.16847319901845</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66">
         <v>68.019423466754333</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66">
         <v>64.60897873972381</v>
       </c>
-      <c r="H66" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="A57:B58"/>
@@ -3243,14 +3162,32 @@
     <mergeCell ref="A35:B36"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:G3">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:G10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:G10">
     <cfRule type="colorScale" priority="39">
       <colorScale>
@@ -3262,8 +3199,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3287,8 +3222,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="C14:G14">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G21">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3310,6 +3257,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:G21">
     <cfRule type="colorScale" priority="42">
@@ -3323,104 +3280,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G44">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G44">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:G44">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:G55">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:G55">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:G55">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:G3">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:G10">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G14">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="C26:G33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:G33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:G33">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3432,6 +3317,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:G37">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3442,45 +3337,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G37">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
-    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3502,21 +3369,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G55">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G44">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3538,6 +3391,36 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:G44">
     <cfRule type="colorScale" priority="21">
@@ -3550,9 +3433,71 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:G55">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:G48">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:G55">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3574,6 +3519,36 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:G55">
     <cfRule type="colorScale" priority="20">
@@ -3586,9 +3561,41 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:G66">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:G59">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:G66">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3610,153 +3617,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:G66">
     <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G37">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G37">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:G59">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:G59">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:G44">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G55">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:G66">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G33">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:G33">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:G33">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3780,9 +3653,9 @@
       <selection activeCell="A23" sqref="A23:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -3795,7 +3668,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2">
@@ -3814,7 +3687,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3837,7 +3710,7 @@
         <v>52.115923724830367</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
@@ -3858,7 +3731,7 @@
         <v>86.922776148582614</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -3879,7 +3752,7 @@
         <v>87.362283987462419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
@@ -3900,7 +3773,7 @@
         <v>88.692203219751036</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
@@ -3921,7 +3794,7 @@
         <v>84.276190393803844</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
@@ -3942,7 +3815,7 @@
         <v>86.685230841097251</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
@@ -3963,7 +3836,7 @@
         <v>79.89448582311843</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
@@ -3984,7 +3857,7 @@
         <v>78.769372284073967</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -3997,7 +3870,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13">
@@ -4016,7 +3889,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -4039,7 +3912,7 @@
         <v>52.57258857487232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
@@ -4060,7 +3933,7 @@
         <v>86.396820041695875</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
@@ -4081,7 +3954,7 @@
         <v>88.343307468057688</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
@@ -4102,7 +3975,7 @@
         <v>89.263586478545065</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
@@ -4123,7 +3996,7 @@
         <v>84.263589362076374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
@@ -4144,7 +4017,7 @@
         <v>85.064403671312036</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
@@ -4165,7 +4038,7 @@
         <v>78.547403812605069</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
@@ -4186,7 +4059,7 @@
         <v>75.706831373973827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -4199,7 +4072,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24">
@@ -4218,7 +4091,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -4241,7 +4114,7 @@
         <v>52.878836898819777</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
@@ -4262,7 +4135,7 @@
         <v>87.630498533724349</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
@@ -4283,7 +4156,7 @@
         <v>86.740300521630815</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
@@ -4304,7 +4177,7 @@
         <v>89.714334322384559</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
@@ -4325,7 +4198,7 @@
         <v>82.074412408411817</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
@@ -4346,7 +4219,7 @@
         <v>84.55933009801123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
@@ -4367,7 +4240,7 @@
         <v>76.780577686658191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
@@ -4388,7 +4261,7 @@
         <v>75.234791535105543</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -4401,7 +4274,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35">
@@ -4420,7 +4293,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4316,7 @@
         <v>51.971718325129693</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2">
         <v>9.9999999999999995E-7</v>
@@ -4464,7 +4337,7 @@
         <v>85.962865884076294</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <v>1.0000000000000001E-5</v>
@@ -4485,7 +4358,7 @@
         <v>85.725493588468183</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="3">
         <v>1E-4</v>
@@ -4506,7 +4379,7 @@
         <v>88.643932905994006</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40">
         <v>1E-3</v>
@@ -4527,7 +4400,7 @@
         <v>78.816483418253327</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41">
         <v>0.01</v>
@@ -4548,7 +4421,7 @@
         <v>81.935114778962927</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42">
         <v>0.1</v>
@@ -4569,7 +4442,7 @@
         <v>74.120877631582744</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43">
         <v>1</v>
@@ -4590,7 +4463,7 @@
         <v>73.422688200878326</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +4476,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46">
@@ -4622,7 +4495,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>1</v>
       </c>
@@ -4645,7 +4518,7 @@
         <v>51.934716851645199</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2">
         <v>9.9999999999999995E-7</v>
@@ -4666,7 +4539,7 @@
         <v>84.327499949538193</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="2">
         <v>1.0000000000000001E-5</v>
@@ -4687,7 +4560,7 @@
         <v>82.296715369510125</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="3">
         <v>1E-4</v>
@@ -4708,7 +4581,7 @@
         <v>86.161085591859219</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51">
         <v>1E-3</v>
@@ -4729,7 +4602,7 @@
         <v>73.513352191627959</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52">
         <v>0.01</v>
@@ -4750,7 +4623,7 @@
         <v>78.484127602026533</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53">
         <v>0.1</v>
@@ -4771,7 +4644,7 @@
         <v>69.880910157815677</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54">
         <v>1</v>
@@ -4792,7 +4665,7 @@
         <v>69.947513963500271</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -4805,7 +4678,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57">
@@ -4824,7 +4697,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
@@ -4847,7 +4720,7 @@
         <v>49.007534667254909</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="2">
         <v>9.9999999999999995E-7</v>
@@ -4868,7 +4741,7 @@
         <v>73.126468798749698</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="2">
         <v>1.0000000000000001E-5</v>
@@ -4889,7 +4762,7 @@
         <v>71.616922868421597</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="3">
         <v>1E-4</v>
@@ -4910,7 +4783,7 @@
         <v>77.69327877692136</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62">
         <v>1E-3</v>
@@ -4931,7 +4804,7 @@
         <v>69.114784729971703</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63">
         <v>0.01</v>
@@ -4952,7 +4825,7 @@
         <v>72.311040752947704</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64">
         <v>0.1</v>
@@ -4973,7 +4846,7 @@
         <v>63.899312854494127</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65">
         <v>1</v>
@@ -4996,6 +4869,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="C23:G23"/>
@@ -5008,12 +4887,6 @@
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G10">

--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda_20250811/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda_20250811/summary_selection_rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda_20250811\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFB946-9617-4D38-9D8C-3C32C7447E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F80AABF-4FBC-48CD-A16B-E6A8A843273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_new_0809" sheetId="4" r:id="rId1"/>
@@ -398,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D157B6FF-07C1-4652-AEC9-C3ADB04F35C0}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1618,22 +1618,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A35:B36"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A26:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G3">
@@ -2121,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B10F5E4-1932-4016-A66A-FA6FDD25640E}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -3146,12 +3146,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="A57:B58"/>
@@ -3162,6 +3156,12 @@
     <mergeCell ref="A35:B36"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G3">
@@ -4869,12 +4869,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="C23:G23"/>
@@ -4887,6 +4881,12 @@
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G10">
